--- a/data/places/data.xlsx
+++ b/data/places/data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="177">
   <si>
     <t xml:space="preserve">AspireMedia_13878                                                     </t>
   </si>
@@ -492,9 +492,6 @@
   </si>
   <si>
     <t>Exclusion of Hotels with notice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7/2/2014    </t>
   </si>
   <si>
     <t>Hilton iProspect IO</t>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,15 +1116,15 @@
         <v>41543</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -1136,7 +1133,7 @@
         <v>42509</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1201,8 +1198,8 @@
       <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>156</v>
+      <c r="D22" s="1">
+        <v>41822</v>
       </c>
       <c r="F22" t="s">
         <v>149</v>
@@ -1548,7 +1545,7 @@
         <v>149</v>
       </c>
       <c r="G48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1601,7 +1598,7 @@
         <v>137</v>
       </c>
       <c r="G52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1723,7 +1720,7 @@
         <v>42663</v>
       </c>
       <c r="F61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1798,10 +1795,10 @@
         <v>41674</v>
       </c>
       <c r="F67" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" t="s">
         <v>171</v>
-      </c>
-      <c r="G67" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,7 +1837,7 @@
         <v>42307</v>
       </c>
       <c r="F70" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,7 +1912,7 @@
         <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2091,10 +2088,10 @@
         <v>42459</v>
       </c>
       <c r="F89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,10 +2119,10 @@
         <v>42433</v>
       </c>
       <c r="F91" t="s">
+        <v>167</v>
+      </c>
+      <c r="G91" t="s">
         <v>168</v>
-      </c>
-      <c r="G91" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2225,7 +2222,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
         <v>84</v>
@@ -2256,7 +2253,7 @@
         <v>76</v>
       </c>
       <c r="F101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,7 +2414,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
         <v>77</v>
@@ -2429,12 +2426,12 @@
         <v>41088</v>
       </c>
       <c r="G114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
         <v>77</v>
@@ -2446,10 +2443,10 @@
         <v>41002</v>
       </c>
       <c r="F115" t="s">
+        <v>160</v>
+      </c>
+      <c r="G115" t="s">
         <v>161</v>
-      </c>
-      <c r="G115" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
